--- a/source_plates/220217_source_plate.xlsx
+++ b/source_plates/220217_source_plate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7183F224-382B-4D5E-93FC-C3B3D9D7EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA639623-7177-4978-8701-49753916555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="184">
   <si>
     <t>Plasmid</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>E24</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
   </si>
 </sst>
 </file>
@@ -944,15 +947,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,7 +992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>5.056</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>49.45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1326,8 +1329,11 @@
       <c r="E20">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>46.475000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>50.274999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>50.45</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -1573,8 +1579,11 @@
       <c r="J33">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>4.843</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>4.452</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>4.2549999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -1714,7 +1723,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>64.775000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -1819,7 +1828,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -1853,7 +1862,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
@@ -1887,7 +1896,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
@@ -1938,7 +1947,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -1954,8 +1963,11 @@
       <c r="E54">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -1971,8 +1983,11 @@
       <c r="E55">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
@@ -1988,8 +2003,11 @@
       <c r="E56">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -2005,8 +2023,11 @@
       <c r="E57">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>126</v>
       </c>
@@ -2023,7 +2044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -2040,7 +2061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>130</v>
       </c>
@@ -2057,7 +2078,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>132</v>
       </c>
@@ -2074,7 +2095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
@@ -2091,7 +2112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>136</v>
       </c>
@@ -2108,7 +2129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>138</v>
       </c>
@@ -2125,7 +2146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>140</v>
       </c>
@@ -2142,7 +2163,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>142</v>
       </c>
@@ -2159,7 +2180,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
@@ -2176,7 +2197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
@@ -2193,7 +2214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
@@ -2210,7 +2231,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
@@ -2227,7 +2248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>152</v>
       </c>
@@ -2244,7 +2265,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>154</v>
       </c>
@@ -2261,7 +2282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>156</v>
       </c>
@@ -2278,7 +2299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>156</v>
       </c>
@@ -2295,7 +2316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -2312,7 +2333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>162</v>
       </c>
@@ -2329,7 +2350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>164</v>
       </c>
@@ -2346,7 +2367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>156</v>
       </c>
@@ -2363,7 +2384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -2387,7 +2408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
@@ -2411,7 +2432,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>172</v>
       </c>
@@ -2435,7 +2456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>174</v>
       </c>
@@ -2459,7 +2480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>176</v>
       </c>
@@ -2483,7 +2504,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>176</v>
       </c>
@@ -2500,7 +2521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>176</v>
       </c>

--- a/source_plates/220217_source_plate.xlsx
+++ b/source_plates/220217_source_plate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA639623-7177-4978-8701-49753916555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D778ECB-F2A2-4203-997C-D1B6B0DE1711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16605" yWindow="2325" windowWidth="14820" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -949,13 +949,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,7 +992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>5.056</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>49.45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>46.475000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>50.274999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>50.45</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>4.843</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>4.452</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>4.2549999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>64.775000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>126</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>130</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>132</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>136</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>138</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>140</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>142</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>152</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>154</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>156</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>156</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>162</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>164</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>156</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>172</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>174</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>176</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>176</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>176</v>
       </c>
